--- a/results/[1_high_electricity_price]_#_inv_cost.xlsx
+++ b/results/[1_high_electricity_price]_#_inv_cost.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13246.3894556564</v>
+        <v>10156.73170950272</v>
       </c>
       <c r="B2" t="n">
-        <v>4963.3841664</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>149166.8741388572</v>
+        <v>136980.219617424</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661735</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>61345.70576785118</v>
+        <v>58954.06542464627</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54263.04703986398</v>
+        <v>38854.33496488927</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>342227.6371606169</v>
+        <v>294384.0167927705</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>126052.6350814246</v>
+        <v>129498.5803615879</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>36768.89779001973</v>
+        <v>46561.59336085589</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>496846.6605987171</v>
+        <v>602339.9350040504</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116157.9124867139</v>
+        <v>109539.9473691818</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_high_electricity_price]_#_inv_cost.xlsx
+++ b/results/[1_high_electricity_price]_#_inv_cost.xlsx
@@ -492,7 +492,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10156.73170950272</v>
+        <v>10807.88582146178</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>136980.219617424</v>
+        <v>136044.8023863496</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661834</v>
+        <v>80959.25712661812</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>58954.06542464627</v>
+        <v>57939.83243172245</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>38854.33496488927</v>
+        <v>42528.20226193505</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>294384.0167927705</v>
+        <v>287602.509905369</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>129498.5803615879</v>
+        <v>129606.8557784683</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>46561.59336085589</v>
+        <v>54255.41119000787</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>602339.9350040504</v>
+        <v>600282.0661497001</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>109539.9473691818</v>
+        <v>96756.12588925863</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_high_electricity_price]_#_inv_cost.xlsx
+++ b/results/[1_high_electricity_price]_#_inv_cost.xlsx
@@ -492,7 +492,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10156.73170950272</v>
+        <v>10156.73170950274</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>58954.06542464627</v>
+        <v>58954.06542464629</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>38854.33496488927</v>
+        <v>38854.33496488928</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>46561.59336085589</v>
+        <v>46561.59336085607</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>

--- a/results/[1_high_electricity_price]_#_inv_cost.xlsx
+++ b/results/[1_high_electricity_price]_#_inv_cost.xlsx
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>136044.8023863496</v>
+        <v>136044.8023863495</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661812</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57939.83243172245</v>
+        <v>57939.83243172235</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42528.20226193505</v>
+        <v>42528.20226193345</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>287602.509905369</v>
+        <v>287602.5099053701</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>129606.8557784683</v>
+        <v>129606.8557784699</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54255.41119000787</v>
+        <v>54255.41119001148</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>600282.0661497001</v>
+        <v>600282.0661496968</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96756.12588925863</v>
+        <v>96756.12588925491</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_high_electricity_price]_#_inv_cost.xlsx
+++ b/results/[1_high_electricity_price]_#_inv_cost.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,18 +481,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10156.73170950274</v>
+        <v>9959.980025003983</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -504,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>136980.219617424</v>
+        <v>137310.1450534204</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -516,10 +546,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>173556.1020009904</v>
       </c>
       <c r="J2" t="n">
-        <v>58954.06542464629</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>239389.23436362</v>
+      </c>
+      <c r="M2" t="n">
+        <v>60161.87198274</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>59668.48746982119</v>
+      </c>
+      <c r="P2" t="n">
+        <v>35963.61232299141</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,18 +632,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>38854.33496488928</v>
+        <v>37598.03146943192</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>294384.0167927705</v>
+        <v>297156.6253789631</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -619,10 +697,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>107184.6629643595</v>
       </c>
       <c r="J2" t="n">
-        <v>129498.5803615879</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>834708.2001598987</v>
+      </c>
+      <c r="M2" t="n">
+        <v>190046.297638637</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>131224.3940679704</v>
+      </c>
+      <c r="P2" t="n">
+        <v>63137.23941268701</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,18 +783,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>46561.59336085607</v>
+        <v>54199.7507479046</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>602339.9350040504</v>
+        <v>597713.1097841817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -722,10 +848,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>504716.3174554476</v>
       </c>
       <c r="J2" t="n">
-        <v>109539.9473691818</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>784800.0124032419</v>
+      </c>
+      <c r="M2" t="n">
+        <v>394743.1137006054</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>98144.38929926624</v>
+      </c>
+      <c r="P2" t="n">
+        <v>172483.2853508248</v>
       </c>
     </row>
   </sheetData>
@@ -739,7 +883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,12 +934,42 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
@@ -828,6 +1002,24 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -842,7 +1034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,12 +1085,42 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
@@ -931,6 +1153,24 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -945,7 +1185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -996,12 +1236,42 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
@@ -1034,6 +1304,24 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/[1_high_electricity_price]_#_inv_cost.xlsx
+++ b/results/[1_high_electricity_price]_#_inv_cost.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,18 +481,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10807.88582146178</v>
+        <v>10584.5234</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -504,22 +534,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>136044.8023863495</v>
+        <v>136360.1420617428</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661834</v>
+        <v>80959.25712661819</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>185172.621913662</v>
       </c>
       <c r="J2" t="n">
-        <v>57939.83243172235</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>214214.4583563833</v>
+      </c>
+      <c r="M2" t="n">
+        <v>61083.44375382986</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>58910.80875217319</v>
+      </c>
+      <c r="P2" t="n">
+        <v>35963.45579954446</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,18 +632,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42528.20226193345</v>
+        <v>40817.7675482059</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>287602.5099053701</v>
+        <v>293150.8718583849</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -619,10 +697,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>123407.4134469278</v>
       </c>
       <c r="J2" t="n">
-        <v>129606.8557784699</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>801914.1603530986</v>
+      </c>
+      <c r="M2" t="n">
+        <v>189032.2597449066</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>129426.0491110523</v>
+      </c>
+      <c r="P2" t="n">
+        <v>60334.7370904433</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,18 +783,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54255.41119001148</v>
+        <v>55564.60215131454</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>600282.0661496968</v>
+        <v>594260.1478295899</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -722,10 +848,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>545734.2878419658</v>
       </c>
       <c r="J2" t="n">
-        <v>96756.12588925491</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>709443.6403042184</v>
+      </c>
+      <c r="M2" t="n">
+        <v>384121.5613883798</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>99390.18000258053</v>
+      </c>
+      <c r="P2" t="n">
+        <v>172000.8904480069</v>
       </c>
     </row>
   </sheetData>
@@ -739,7 +883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,12 +934,42 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
@@ -828,6 +1002,24 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -842,7 +1034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,12 +1085,42 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
@@ -931,6 +1153,24 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -945,7 +1185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -996,12 +1236,42 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
@@ -1034,6 +1304,24 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/[1_high_electricity_price]_#_inv_cost.xlsx
+++ b/results/[1_high_electricity_price]_#_inv_cost.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,15 +506,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -561,13 +556,10 @@
         <v>60161.87198274</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>59668.48746982119</v>
       </c>
       <c r="O2" t="n">
-        <v>59668.48746982119</v>
-      </c>
-      <c r="P2" t="n">
-        <v>35963.61232299141</v>
+        <v>35963.61232299138</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,15 +649,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -673,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37598.03146943192</v>
+        <v>37598.031469432</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -712,13 +699,10 @@
         <v>190046.297638637</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>131224.3940679703</v>
       </c>
       <c r="O2" t="n">
-        <v>131224.3940679704</v>
-      </c>
-      <c r="P2" t="n">
-        <v>63137.23941268701</v>
+        <v>63137.23941268703</v>
       </c>
     </row>
   </sheetData>
@@ -732,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,15 +792,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -824,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54199.7507479046</v>
+        <v>54199.75074790542</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -836,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>597713.1097841817</v>
+        <v>597713.1097841843</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -863,13 +842,10 @@
         <v>394743.1137006054</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>98144.38929926346</v>
       </c>
       <c r="O2" t="n">
-        <v>98144.38929926624</v>
-      </c>
-      <c r="P2" t="n">
-        <v>172483.2853508248</v>
+        <v>172483.2853508253</v>
       </c>
     </row>
   </sheetData>
@@ -883,7 +859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -959,15 +935,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1017,9 +988,6 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1034,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,15 +1078,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1168,9 +1131,6 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1185,7 +1145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1261,15 +1221,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1319,9 +1274,6 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
